--- a/Project/Data/Water/Nb_of_centrales.xlsx
+++ b/Project/Data/Water/Nb_of_centrales.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="M2" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" s="2">
         <v>10</v>
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="2">
         <v>10</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A14" si="0" xml:space="preserve"> A3+ 1</f>
+        <f t="shared" ref="A4:A13" si="0" xml:space="preserve"> A3+ 1</f>
         <v>2008</v>
       </c>
       <c r="B4" s="2">
@@ -888,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="2">
         <v>10</v>
@@ -972,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="2">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="2">
         <v>10</v>
@@ -1140,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="2">
         <v>10</v>
@@ -1224,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="2">
         <v>10</v>
@@ -1308,7 +1308,7 @@
         <v>8</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="2">
         <v>10</v>
@@ -1392,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="2">
         <v>10</v>
@@ -1476,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="2">
         <v>10</v>
@@ -1560,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" s="2">
         <v>10</v>
@@ -1644,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="2">
         <v>10</v>
